--- a/resources/views/expenses/expenses.xlsx
+++ b/resources/views/expenses/expenses.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Operative\Documents\OPERATIVE\PROJETOS\dgp\resources\views\expenses\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27225" windowHeight="13365"/>
   </bookViews>
@@ -56,7 +61,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +78,13 @@
       <color theme="9" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,20 +126,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,23 +424,23 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="21.75" customWidth="1"/>
-    <col min="11" max="11" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1">
@@ -436,7 +459,7 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
